--- a/AAII_Financials/Quarterly/TOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,197 +662,221 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>38577000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43385000</v>
+      </c>
+      <c r="F8" s="3">
         <v>42538000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>45202000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>45124000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>46312000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>48400000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>46102000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>43292000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>41442000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>37082000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>34482000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>36093000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>36867000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>31825000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26107000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>28126000</v>
+      </c>
+      <c r="F9" s="3">
         <v>27805000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>30295000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>30238000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>33153000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>32577000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>31302000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>29379000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>28179000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>24585000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>22972000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>24055000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>24314000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>21176000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12470000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15259000</v>
+      </c>
+      <c r="F10" s="3">
         <v>14733000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>14907000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>14886000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>13159000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>15823000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>14800000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>13913000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>13263000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>12497000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>11510000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>12038000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>12553000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>10649000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,52 +893,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>231000</v>
+      </c>
+      <c r="F12" s="3">
         <v>96000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>170000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>288000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>201000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>234000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>158000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>204000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>287000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>181000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>199000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>197000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>260000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,96 +989,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2350000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>905000</v>
+      </c>
+      <c r="F14" s="3">
         <v>832000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>203000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-415000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1491000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-122000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-279000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>89000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-520000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-161000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>440000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1862000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1918000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3635000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3761000</v>
+      </c>
+      <c r="F15" s="3">
         <v>3987000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3597000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3466000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>3138000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3175000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3011000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2894000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>5691000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>2978000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2784000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2649000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2816000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>2936000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1060,96 +1110,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>38629000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>39774000</v>
+      </c>
+      <c r="F17" s="3">
         <v>38925000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>41171000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>40166000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>44729000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>42511000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>41114000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>39170000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>40281000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>33354000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>32037000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>32895000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>36093000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>29963000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3611000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3613000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4031000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4958000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1583000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>5889000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4988000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4122000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1161000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3728000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2445000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3198000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>774000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1862000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1166,228 +1230,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>493000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1366000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>908000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>648000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>719000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>974000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1211000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>513000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>693000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>495000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>399000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>605000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>449000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>637000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4262000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8728000</v>
+      </c>
+      <c r="F21" s="3">
         <v>9221000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>8758000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>9322000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>6855000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>10340000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>9707000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>7681000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>7711000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>7387000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>5774000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>8463000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>6253000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5796000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>603000</v>
+      </c>
+      <c r="F22" s="3">
         <v>594000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>564000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>557000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>529000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>536000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>478000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>390000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>352000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>368000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>345000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>331000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>299000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3501000</v>
+      </c>
+      <c r="F23" s="3">
         <v>4385000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4375000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>5049000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1773000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>6327000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5721000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4245000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1502000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3855000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2499000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3472000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>924000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2231000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>852000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1540000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1571000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1909000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>593000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2240000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2087000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1596000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>772000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1092000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>472000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>693000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>437000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>251000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1430,96 +1526,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2649000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2845000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2804000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3140000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1180000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4087000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3634000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2649000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>730000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2763000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2027000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2779000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>487000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1980000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2527000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2727000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2624000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3036000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>817000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3957000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3721000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2636000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>719000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2724000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2037000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2849000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>345000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1562,8 +1676,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1606,8 +1726,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1650,8 +1776,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1694,96 +1826,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-493000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1366000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-908000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-648000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-719000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-974000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1211000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-513000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-693000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-495000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-399000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-605000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-449000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-637000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2527000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2727000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2624000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3036000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>817000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3957000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3721000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2636000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>719000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2724000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2037000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2849000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>345000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1826,101 +1976,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2527000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2727000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2624000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3036000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>817000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3957000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3721000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2636000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>719000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2724000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2037000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2849000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>345000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1937,8 +2105,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1955,404 +2125,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>21634000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>27352000</v>
+      </c>
+      <c r="F41" s="3">
         <v>27454000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>26723000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>25432000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>27907000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>25252000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>26475000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>30092000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>33185000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>28583000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>28720000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>27526000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>24597000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>24801000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>7016000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3992000</v>
+      </c>
+      <c r="F42" s="3">
         <v>3781000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>3536000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>3373000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>3654000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>3553000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>3609000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2289000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3393000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2579000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3618000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3971000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4548000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1755000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>18029000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>18488000</v>
+      </c>
+      <c r="F43" s="3">
         <v>18568000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>20349000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>19321000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>17270000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>20010000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>16974000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>17774000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>14893000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>13738000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>12923000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>12235000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>12213000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>11501000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>11556000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>17132000</v>
+      </c>
+      <c r="F44" s="3">
         <v>16226000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>16410000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>17075000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>14880000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>19689000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>18392000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>17006000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>16520000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>14769000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>14273000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>14985000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>15247000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>14635000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>19850000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18301000</v>
+      </c>
+      <c r="F45" s="3">
         <v>15343000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>15958000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>16551000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>16088000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>18820000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>14408000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>14824000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>16957000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>14941000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14455000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>14368000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>15912000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>15972000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>78085000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>85265000</v>
+      </c>
+      <c r="F46" s="3">
         <v>81372000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>82976000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>81752000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>79799000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>87324000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>79858000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>81985000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>84948000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>74610000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>73989000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>73085000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>72517000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>68664000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>29791000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>29812000</v>
+      </c>
+      <c r="F47" s="3">
         <v>29677000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>28904000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>28101000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>25545000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>26133000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>24806000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>25196000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>24509000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>23880000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>23746000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>23896000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>22617000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>23524000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>113254000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>116408000</v>
+      </c>
+      <c r="F48" s="3">
         <v>116900000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>118063000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>117881000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>113324000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>115136000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>114047000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>116181000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>109397000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>113491000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>112659000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>111100000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>111971000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>113433000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>32823000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>33178000</v>
+      </c>
+      <c r="F49" s="3">
         <v>31539000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>29229000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>28727000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>28922000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>27356000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>24562000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>24502000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>14587000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>14891000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>14119000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>14048000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>15362000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>14916000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2395,8 +2621,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2439,52 +2671,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>9231000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8631000</v>
+      </c>
+      <c r="F52" s="3">
         <v>7953000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8328000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8402000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9172000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8353000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8732000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9152000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9190000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>9636000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>9392000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8880000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>8511000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8968000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2527,52 +2771,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>263184000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>273294000</v>
+      </c>
+      <c r="F54" s="3">
         <v>267441000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>267500000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>264863000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>256762000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>264302000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>252005000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>257016000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>242631000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>236508000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>233905000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>231009000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>230978000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>229505000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2589,8 +2845,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2607,272 +2865,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>47225000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>54143000</v>
+      </c>
+      <c r="F57" s="3">
         <v>50965000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>49745000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>49777000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>48380000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>52529000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>42813000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>42788000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>44258000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>38832000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>36776000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>36784000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>39947000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>36694000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>18521000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>14819000</v>
+      </c>
+      <c r="F58" s="3">
         <v>14631000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>16221000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>13906000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>13306000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>15180000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>15659000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>14909000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>11096000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>11206000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>13070000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>13582000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>13920000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>13383000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>934000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1282000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>426000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>917000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>548000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>696000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>803000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>369000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1351000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>794000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>580000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>611000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>818000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>66680000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>70244000</v>
+      </c>
+      <c r="F60" s="3">
         <v>66696000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>66392000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>64600000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>62234000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>68405000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>59275000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>58066000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>56705000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>50832000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>50426000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>50977000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>54685000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>50982000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>48896000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>47773000</v>
+      </c>
+      <c r="F61" s="3">
         <v>47923000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>45394000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>44396000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>40129000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>41088000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>38362000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>40257000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>41340000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>40226000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>41548000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>42017000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>43067000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>44450000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>35509000</v>
+        <v>33174000</v>
       </c>
       <c r="E62" s="3">
-        <v>36490000</v>
+        <v>35972000</v>
       </c>
       <c r="F62" s="3">
         <v>35509000</v>
       </c>
       <c r="G62" s="3">
+        <v>36490000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>35509000</v>
+      </c>
+      <c r="I62" s="3">
         <v>36285000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>34186000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>34105000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>35007000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>30549000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>32850000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>31971000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>31361000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>31652000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>32957000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2915,8 +3211,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2959,8 +3261,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3003,52 +3311,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>151178000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>156516000</v>
+      </c>
+      <c r="F66" s="3">
         <v>152447000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>150638000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>146870000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>141122000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>146109000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>134030000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>135829000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>131075000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>126707000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>126717000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>127178000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>132298000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>131337000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3065,8 +3385,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3109,8 +3431,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3153,8 +3481,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3197,8 +3531,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3241,8 +3581,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
@@ -3285,8 +3631,14 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3329,8 +3681,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3373,8 +3731,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3417,52 +3781,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>112006000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>116778000</v>
+      </c>
+      <c r="F76" s="3">
         <v>114994000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>116862000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>117993000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>115640000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>118193000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>117975000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>121187000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>111556000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>109801000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>107188000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>103831000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>98680000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>98168000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3505,101 +3881,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2527000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2727000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2624000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3036000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>817000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3957000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3721000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2636000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>719000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2724000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2037000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2849000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>345000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3616,52 +4010,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>3730000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4624000</v>
+      </c>
+      <c r="F83" s="3">
         <v>4242000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3819000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3716000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>4553000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3477000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3508000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3046000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5857000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3164000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2930000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4660000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>5030000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>3297000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3704,8 +4106,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3748,8 +4156,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3792,8 +4206,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3836,8 +4256,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3880,52 +4306,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6599000</v>
+      </c>
+      <c r="F89" s="3">
         <v>8206000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>6251000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3629000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>10640000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5736000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>6246000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2081000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>8615000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4363000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4640000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4701000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>7018000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4740000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3942,52 +4380,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-2364000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4015000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2210000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2881000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2704000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4550000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3352000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3513000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5665000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4662000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3104000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3323000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2678000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5742000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-4124000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4030,8 +4476,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4074,52 +4526,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-3774000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3925000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6831000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3331000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3090000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5587000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2513000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4139000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3636000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3371000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3845000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-780000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4928000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5009000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4136,52 +4600,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1882000</v>
       </c>
       <c r="E96" s="3">
+        <v>-1876000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2935000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1830000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-705000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2692000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-643000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1462000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-538000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-534000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4224,8 +4696,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4268,8 +4746,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4312,136 +4796,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-2804000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3607000</v>
+      </c>
+      <c r="F100" s="3">
         <v>507000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2780000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4818000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1208000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-6054000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1845000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-986000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2083000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1105000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1366000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2402000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>831000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1151000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>200000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-234000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-460000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-164000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1296000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>810000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>609000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>954000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1504000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>374000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1119000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-5718000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="F102" s="3">
         <v>731000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1291000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2475000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2655000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1223000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3617000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3093000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4602000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-137000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1194000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2929000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-204000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2148000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOT_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,221 +662,233 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21562000</v>
+      </c>
+      <c r="E8" s="3">
         <v>38577000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43385000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>42538000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45202000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45124000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>46312000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>48400000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46102000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>43292000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41442000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37082000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34482000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>36093000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>36867000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31825000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11842000</v>
+      </c>
+      <c r="E9" s="3">
         <v>26107000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28126000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27805000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30295000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>30238000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>33153000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>32577000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31302000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>29379000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28179000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>24585000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22972000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>24055000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>24314000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>21176000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9720000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12470000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15259000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14733000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14907000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14886000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13159000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15823000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14800000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13913000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13263000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12497000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11510000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12038000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12553000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10649000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,58 +907,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E12" s="3">
         <v>140000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>231000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>96000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>170000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>288000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>201000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>234000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>158000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>204000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>287000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>181000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>199000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>197000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>260000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -995,108 +1011,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8574000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2350000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>905000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>832000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>203000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-415000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1491000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-122000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-279000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>89000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-520000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-161000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>440000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1862000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1918000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3302000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3635000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3761000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3987000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3597000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3466000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3138000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3175000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3011000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2894000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5691000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2978000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2784000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2649000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2816000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2936000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1112,108 +1137,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>29894000</v>
+      </c>
+      <c r="E17" s="3">
         <v>38629000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>39774000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38925000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41171000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40166000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44729000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>42511000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41114000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39170000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40281000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33354000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32037000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32895000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>36093000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29963000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-8332000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-52000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3611000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3613000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4031000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4958000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1583000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5889000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4988000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4122000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1161000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3728000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2445000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3198000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>774000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1862000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1232,258 +1264,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E20" s="3">
         <v>584000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>493000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1366000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>908000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>648000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>719000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>974000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1211000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>513000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>693000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>495000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>399000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>605000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>449000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>637000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3230000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4262000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8728000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9221000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8758000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9322000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6855000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10340000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9707000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7681000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7711000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7387000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5774000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8463000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6253000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5796000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>435000</v>
+      </c>
+      <c r="E22" s="3">
         <v>567000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>603000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>594000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>564000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>557000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>529000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>536000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>478000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>390000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>352000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>368000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>345000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>331000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>299000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-8906000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3501000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4385000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4375000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5049000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1773000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6327000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5721000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4245000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1502000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3855000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2499000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3472000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>924000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2231000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-484000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-37000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>852000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1540000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1571000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1909000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>593000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2240000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2087000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1596000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>772000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1092000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>472000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>693000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>437000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>251000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1532,108 +1580,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-8422000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2649000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2845000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2804000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3140000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1180000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4087000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3634000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2649000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>730000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2763000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2027000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2779000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>487000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1980000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-8440000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2527000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2727000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2624000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3036000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>817000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3957000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3721000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2636000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>719000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2724000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2037000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2849000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>345000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1682,8 +1739,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1732,8 +1792,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,8 +1845,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1832,108 +1898,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-584000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-493000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1366000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-908000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-648000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-719000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-974000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1211000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-513000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-693000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-495000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-399000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-605000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-449000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-637000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-8440000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2527000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2727000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2624000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3036000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>817000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3957000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3721000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2636000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>719000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2724000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2037000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2849000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>345000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1982,113 +2057,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-8440000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2527000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2727000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2624000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3036000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>817000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3957000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3721000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2636000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>719000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2724000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2037000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2849000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>345000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2107,8 +2191,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2127,458 +2212,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>29727000</v>
+      </c>
+      <c r="E41" s="3">
         <v>21634000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27352000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27454000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26723000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25432000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27907000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25252000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26475000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30092000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33185000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28583000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28720000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27526000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24597000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24801000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>6570000</v>
+      </c>
+      <c r="E42" s="3">
         <v>7016000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3992000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3781000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3536000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3373000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3654000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3553000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3609000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2289000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3393000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2579000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3618000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3971000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4548000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1755000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>13481000</v>
+      </c>
+      <c r="E43" s="3">
         <v>18029000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18488000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18568000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20349000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19321000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17270000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20010000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16974000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17774000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14893000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13738000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12923000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12235000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12213000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11501000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>12688000</v>
+      </c>
+      <c r="E44" s="3">
         <v>11556000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17132000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16226000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16410000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17075000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>14880000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19689000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18392000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17006000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16520000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14769000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>14273000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>14985000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15247000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>14635000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>17576000</v>
+      </c>
+      <c r="E45" s="3">
         <v>19850000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18301000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15343000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15958000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16551000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16088000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18820000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14408000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14824000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16957000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14941000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14455000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14368000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15912000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15972000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>80042000</v>
+      </c>
+      <c r="E46" s="3">
         <v>78085000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>85265000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>81372000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>82976000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>81752000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>79799000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>87324000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>79858000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>81985000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>84948000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>74610000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>73989000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>73085000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>72517000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>68664000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>31528000</v>
+      </c>
+      <c r="E47" s="3">
         <v>29791000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>29812000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29677000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>28904000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>28101000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>25545000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26133000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24806000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25196000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24509000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23880000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23746000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23896000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22617000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>23524000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>104925000</v>
+      </c>
+      <c r="E48" s="3">
         <v>113254000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>116408000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>116900000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>118063000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>117881000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>113324000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>115136000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>114047000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>116181000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>109397000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>113491000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>112659000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>111100000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>111971000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>113433000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>33114000</v>
+      </c>
+      <c r="E49" s="3">
         <v>32823000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>33178000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31539000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29229000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28727000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28922000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>27356000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24562000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24502000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14587000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14891000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14119000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14048000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15362000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14916000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2627,8 +2740,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2677,58 +2793,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>9796000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9231000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8631000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7953000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8328000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8402000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9172000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8353000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8732000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9152000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9190000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9636000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9392000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8880000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8511000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8968000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2777,58 +2899,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>259405000</v>
+      </c>
+      <c r="E54" s="3">
         <v>263184000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>273294000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>267441000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>267500000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>264863000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>256762000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>264302000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>252005000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>257016000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>242631000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>236508000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>233905000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>231009000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>230978000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>229505000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2847,8 +2975,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2867,308 +2996,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>43988000</v>
+      </c>
+      <c r="E57" s="3">
         <v>47225000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54143000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50965000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49745000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49777000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48380000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>52529000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42813000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42788000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44258000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38832000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36776000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36784000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39947000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36694000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>16154000</v>
+      </c>
+      <c r="E58" s="3">
         <v>18521000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14819000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14631000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16221000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13906000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13306000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15180000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15659000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14909000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11096000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11206000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13070000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13582000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13920000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13383000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>739000</v>
+      </c>
+      <c r="E59" s="3">
         <v>934000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1282000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>426000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>917000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>548000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>696000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>803000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>369000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1351000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>794000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>580000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>611000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>818000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>60881000</v>
+      </c>
+      <c r="E60" s="3">
         <v>66680000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>70244000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66696000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66392000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64600000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62234000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68405000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59275000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>58066000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56705000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50832000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50426000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>50977000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>54685000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>50982000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>61540000</v>
+      </c>
+      <c r="E61" s="3">
         <v>48896000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>47773000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>47923000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>45394000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>44396000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>40129000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>41088000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38362000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>40257000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>41340000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40226000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>41548000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>42017000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>43067000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>44450000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>33445000</v>
+      </c>
+      <c r="E62" s="3">
         <v>33174000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>35972000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35509000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>36490000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35509000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>36285000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34186000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34105000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35007000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30549000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32850000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>31971000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>31361000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>31652000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32957000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3217,8 +3365,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3267,8 +3418,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3317,58 +3471,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>158200000</v>
+      </c>
+      <c r="E66" s="3">
         <v>151178000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>156516000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>152447000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>150638000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>146870000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>141122000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>146109000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>134030000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>135829000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>131075000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>126707000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>126717000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>127178000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>132298000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>131337000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3387,8 +3547,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3437,8 +3598,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3487,8 +3651,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3537,8 +3704,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3587,8 +3757,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
@@ -3637,8 +3810,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3687,8 +3863,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3737,8 +3916,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3787,58 +3969,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>101205000</v>
+      </c>
+      <c r="E76" s="3">
         <v>112006000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>116778000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>114994000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>116862000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>117993000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>115640000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>118193000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>117975000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>121187000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>111556000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>109801000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>107188000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>103831000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>98680000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>98168000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3887,113 +4075,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-8440000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2527000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2727000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2624000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3036000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>817000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3957000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3721000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2636000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>719000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2724000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2037000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2849000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>345000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4012,58 +4209,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>11701000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3730000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4624000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4242000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3819000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3716000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4553000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3477000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3508000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3046000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5857000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3164000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2930000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4660000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5030000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3297000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4112,8 +4313,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4162,8 +4366,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4212,8 +4419,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4262,8 +4472,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4312,58 +4525,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>3479000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1299000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6599000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8206000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6251000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3629000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10640000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5736000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6246000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2081000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8615000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4363000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4640000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4701000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7018000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4740000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4382,58 +4601,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-2409000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2364000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4015000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2210000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2881000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2704000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4550000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3352000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3513000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5665000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4662000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3104000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3323000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2678000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5742000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4124000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4482,8 +4705,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4532,58 +4758,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-2928000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3774000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3925000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6831000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3331000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3090000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5587000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2513000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4139000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3636000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3371000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3845000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-780000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4928000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5009000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4602,58 +4834,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-1928000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1882000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1876000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-2935000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1830000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-705000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-2692000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-643000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1462000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-538000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-534000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4702,8 +4938,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4752,8 +4991,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4802,154 +5044,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>7487000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2804000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3607000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>507000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2780000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4818000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1208000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6054000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1845000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-986000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2083000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1105000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1366000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2402000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-439000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>831000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1151000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-234000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-460000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-164000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1296000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>810000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>609000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>954000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1504000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>374000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1119000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>8093000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5718000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-102000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>731000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1291000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2475000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2655000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1223000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3617000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3093000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4602000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-137000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1194000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2929000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-204000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2148000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOT_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,233 +662,245 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27217000</v>
+      </c>
+      <c r="E8" s="3">
         <v>21562000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>38577000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43385000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>42538000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45202000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>45124000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>46312000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48400000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46102000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>43292000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41442000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37082000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34482000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>36093000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>36867000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>31825000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16942000</v>
+      </c>
+      <c r="E9" s="3">
         <v>11842000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26107000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>28126000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27805000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>30295000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30238000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>33153000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32577000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31302000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29379000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>28179000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>24585000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22972000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>24055000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>24314000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>21176000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10275000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9720000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12470000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15259000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14733000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14907000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14886000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13159000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15823000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14800000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13913000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13263000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12497000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11510000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12038000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12553000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10649000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,61 +920,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E12" s="3">
         <v>114000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>140000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>231000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>96000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>170000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>288000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>201000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>234000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>158000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>204000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>287000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>181000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>199000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>197000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>260000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1014,114 +1030,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8574000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2350000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>905000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>832000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>203000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-415000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1491000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-122000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-279000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>89000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-520000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-161000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>440000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1862000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1918000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3203000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3302000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3635000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3761000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3987000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3597000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3466000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3138000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3175000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3011000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2894000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5691000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2978000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2784000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2649000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2816000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2936000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1138,114 +1163,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>25909000</v>
+      </c>
+      <c r="E17" s="3">
         <v>29894000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38629000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39774000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38925000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41171000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40166000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44729000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42511000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41114000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39170000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>40281000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33354000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32037000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32895000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36093000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>29963000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8332000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-52000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3611000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3613000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4031000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4958000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1583000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5889000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4988000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4122000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1161000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3728000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2445000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3198000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>774000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1862000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1265,273 +1297,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-139000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>584000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>493000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1366000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>908000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>648000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>719000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>974000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1211000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>513000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>693000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>495000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>399000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>605000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>449000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>637000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5094000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3230000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4262000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8728000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9221000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8758000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9322000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6855000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10340000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9707000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7681000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7711000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7387000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5774000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8463000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6253000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5796000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E22" s="3">
         <v>435000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>567000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>603000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>594000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>564000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>557000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>529000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>536000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>478000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>390000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>352000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>368000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>345000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>331000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>299000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>871000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8906000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-35000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3501000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4385000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4375000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5049000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1773000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6327000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5721000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4245000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1502000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3855000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2499000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3472000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>924000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2231000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>690000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-484000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-37000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>852000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1540000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1571000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1909000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>593000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2240000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2087000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1596000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>772000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1092000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>472000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>693000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>437000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>251000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1583,114 +1631,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8422000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2649000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2845000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2804000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3140000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1180000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4087000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3634000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2649000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>730000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2763000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2027000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2779000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>487000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1980000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8440000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2527000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2727000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2624000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3036000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>817000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3957000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3721000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2636000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>719000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2724000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2037000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2849000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>345000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1742,8 +1799,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1795,8 +1855,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1848,8 +1911,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1901,114 +1967,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-152000</v>
+      </c>
+      <c r="E32" s="3">
         <v>139000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-584000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-493000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1366000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-908000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-648000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-719000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-974000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1211000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-513000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-693000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-495000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-399000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-605000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-449000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-637000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8440000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2527000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2727000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2624000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3036000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>817000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3957000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3721000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2636000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>719000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2724000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2037000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2849000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>345000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2060,119 +2135,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8440000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2527000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2727000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2624000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3036000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>817000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3957000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3721000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2636000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>719000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2724000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2037000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2849000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>345000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2192,8 +2276,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2213,485 +2298,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>30593000</v>
+      </c>
+      <c r="E41" s="3">
         <v>29727000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21634000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27352000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27454000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26723000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25432000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27907000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25252000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26475000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30092000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33185000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28583000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28720000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27526000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24597000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24801000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>6011000</v>
+      </c>
+      <c r="E42" s="3">
         <v>6570000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7016000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3992000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3781000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3536000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3373000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3654000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3553000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3609000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2289000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3393000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2579000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3618000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3971000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4548000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1755000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>12893000</v>
+      </c>
+      <c r="E43" s="3">
         <v>13481000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18029000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18488000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18568000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>20349000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19321000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17270000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20010000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16974000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17774000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14893000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13738000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12923000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12235000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12213000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11501000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>12373000</v>
+      </c>
+      <c r="E44" s="3">
         <v>12688000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11556000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17132000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16226000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16410000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17075000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>14880000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>19689000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18392000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17006000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16520000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>14769000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>14273000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>14985000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>15247000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>14635000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>15727000</v>
+      </c>
+      <c r="E45" s="3">
         <v>17576000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19850000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18301000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15343000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15958000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16551000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16088000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18820000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14408000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14824000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16957000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14941000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14455000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14368000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15912000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>15972000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>77597000</v>
+      </c>
+      <c r="E46" s="3">
         <v>80042000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>78085000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>85265000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>81372000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>82976000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>81752000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>79799000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>87324000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>79858000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>81985000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>84948000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>74610000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>73989000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>73085000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>72517000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>68664000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>32363000</v>
+      </c>
+      <c r="E47" s="3">
         <v>31528000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>29791000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29812000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29677000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>28904000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>28101000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25545000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>26133000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24806000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25196000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24509000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23880000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23746000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23896000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22617000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>23524000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>104355000</v>
+      </c>
+      <c r="E48" s="3">
         <v>104925000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>113254000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>116408000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>116900000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>118063000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>117881000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>113324000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>115136000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>114047000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>116181000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>109397000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>113491000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>112659000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>111100000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>111971000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>113433000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>33145000</v>
+      </c>
+      <c r="E49" s="3">
         <v>33114000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>32823000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>33178000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31539000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29229000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28727000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28922000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>27356000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24562000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24502000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14587000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14891000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14119000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14048000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15362000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14916000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2743,8 +2856,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2796,61 +2912,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>9522000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9796000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9231000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8631000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7953000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8328000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8402000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9172000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8353000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8732000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9152000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9190000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9636000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9392000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8880000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8511000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8968000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2902,61 +3024,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>256982000</v>
+      </c>
+      <c r="E54" s="3">
         <v>259405000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>263184000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>273294000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>267441000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>267500000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>264863000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>256762000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>264302000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>252005000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>257016000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>242631000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>236508000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>233905000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>231009000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>230978000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>229505000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2976,8 +3104,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2997,326 +3126,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>41686000</v>
+      </c>
+      <c r="E57" s="3">
         <v>43988000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47225000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54143000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>50965000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49745000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49777000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>48380000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>52529000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42813000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42788000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>44258000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38832000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36776000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36784000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39947000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36694000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>14980000</v>
+      </c>
+      <c r="E58" s="3">
         <v>16154000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18521000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14819000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14631000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>16221000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13906000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13306000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15180000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15659000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14909000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11096000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11206000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13070000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13582000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13920000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13383000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>991000</v>
+      </c>
+      <c r="E59" s="3">
         <v>739000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>934000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1282000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>426000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>917000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>548000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>696000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>803000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>369000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1351000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>794000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>580000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>611000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>818000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>57657000</v>
+      </c>
+      <c r="E60" s="3">
         <v>60881000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66680000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>70244000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66696000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66392000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64600000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>62234000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68405000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>59275000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>58066000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>56705000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50832000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>50426000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>50977000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>54685000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>50982000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>61477000</v>
+      </c>
+      <c r="E61" s="3">
         <v>61540000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>48896000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>47773000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47923000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>45394000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>44396000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>40129000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>41088000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38362000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>40257000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>41340000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>40226000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>41548000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>42017000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>43067000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>44450000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>33437000</v>
+      </c>
+      <c r="E62" s="3">
         <v>33445000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33174000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35972000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35509000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>36490000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35509000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>36285000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34186000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34105000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35007000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30549000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32850000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>31971000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>31361000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>31652000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32957000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3368,8 +3516,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3421,8 +3572,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3474,61 +3628,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>154748000</v>
+      </c>
+      <c r="E66" s="3">
         <v>158200000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>151178000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>156516000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>152447000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>150638000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>146870000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>141122000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>146109000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>134030000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>135829000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>131075000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>126707000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>126717000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>127178000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>132298000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>131337000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3548,8 +3708,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3601,8 +3762,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3654,8 +3818,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3707,8 +3874,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3760,8 +3930,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
@@ -3813,8 +3986,11 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3866,8 +4042,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3919,8 +4098,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3972,61 +4154,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>102234000</v>
+      </c>
+      <c r="E76" s="3">
         <v>101205000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112006000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>116778000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>114994000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>116862000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>117993000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>115640000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>118193000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>117975000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>121187000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>111556000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>109801000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>107188000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>103831000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>98680000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>98168000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4078,119 +4266,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8440000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2527000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2727000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2624000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3036000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>817000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3957000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3721000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2636000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>719000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2724000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2037000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2849000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>345000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4210,61 +4407,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>3634000</v>
+      </c>
+      <c r="E83" s="3">
         <v>11701000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3730000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4624000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4242000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3819000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3716000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4553000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3477000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3508000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3046000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5857000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3164000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2930000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4660000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5030000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3297000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4316,8 +4517,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4369,8 +4573,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4422,8 +4629,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4475,8 +4685,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4528,61 +4741,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>4351000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3479000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1299000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6599000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8206000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6251000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3629000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10640000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5736000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6246000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2081000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8615000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4363000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4640000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4701000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7018000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4740000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4602,61 +4821,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-2157000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2409000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2364000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4015000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2210000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2881000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2704000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4550000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3352000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3513000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5665000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4662000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3104000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3323000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2678000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5742000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4124000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4708,8 +4931,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4761,61 +4987,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1901000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2928000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3774000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3925000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6831000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3331000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3090000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5587000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2513000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4139000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3636000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3371000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3845000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-780000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4928000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5009000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4835,61 +5067,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-825000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1928000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1882000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1876000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-2935000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1830000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-705000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2692000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-643000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1462000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-538000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-534000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4941,8 +5177,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4994,8 +5233,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5047,163 +5289,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-2083000</v>
+      </c>
+      <c r="E100" s="3">
         <v>7487000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2804000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3607000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>507000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2780000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4818000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1208000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6054000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1845000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-986000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2083000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1105000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1366000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2402000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E101" s="3">
         <v>55000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-439000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>831000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1151000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-234000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-460000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-164000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1296000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>810000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>609000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>954000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1504000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>374000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1119000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>866000</v>
+      </c>
+      <c r="E102" s="3">
         <v>8093000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5718000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-102000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>731000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1291000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2475000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2655000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1223000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3617000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3093000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4602000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-137000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1194000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2929000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-204000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2148000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOT_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,245 +662,269 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>38633000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>32348000</v>
+      </c>
+      <c r="F8" s="3">
         <v>27217000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>21562000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>38577000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>43385000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>42538000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>45202000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>45124000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>46312000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>48400000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>46102000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>43292000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>41442000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>37082000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>34482000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>36093000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>36867000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>31825000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>24289000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>21155000</v>
+      </c>
+      <c r="F9" s="3">
         <v>16942000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>11842000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>26107000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>28126000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>27805000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>30295000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>30238000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>33153000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>32577000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>31302000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>29379000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>28179000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>24585000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>22972000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>24055000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>24314000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>21176000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14344000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11193000</v>
+      </c>
+      <c r="F10" s="3">
         <v>10275000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>9720000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>12470000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>15259000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>14733000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>14907000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>14886000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>13159000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>15823000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>14800000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>13913000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>13263000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>12497000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>11510000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>12038000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>12553000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>10649000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,64 +945,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>338000</v>
+      </c>
+      <c r="F12" s="3">
         <v>139000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>114000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>140000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>231000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>96000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>170000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>288000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>201000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>234000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>158000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>204000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>287000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>181000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>199000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>197000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>260000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>274000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1033,120 +1065,138 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-209000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1649000</v>
+      </c>
+      <c r="F14" s="3">
         <v>421000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>8574000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2350000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>905000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>832000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>203000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-415000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1491000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-122000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-279000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>89000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-520000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-161000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>440000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>1862000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>1918000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3180000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3172000</v>
+      </c>
+      <c r="F15" s="3">
         <v>3203000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3302000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3635000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>3761000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3987000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3597000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>3466000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3138000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3175000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3011000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2894000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>5691000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>2978000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2784000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>2649000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>2816000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>2936000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1164,120 +1214,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>34071000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>30863000</v>
+      </c>
+      <c r="F17" s="3">
         <v>25909000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>29894000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>38629000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>39774000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>38925000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>41171000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>40166000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>44729000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>42511000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>41114000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>39170000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>40281000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>33354000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>32037000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>32895000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>36093000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>29963000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4562000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1485000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1308000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-8332000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-52000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3611000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3613000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4031000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4958000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1583000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5889000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4988000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4122000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1161000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3728000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2445000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3198000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>774000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1862000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1298,288 +1362,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>955000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>116000</v>
+      </c>
+      <c r="F20" s="3">
         <v>152000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-139000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>584000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>493000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1366000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>908000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>648000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>719000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>974000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1211000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>513000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>693000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>495000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>399000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>605000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>449000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>637000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>8990000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5397000</v>
+      </c>
+      <c r="F21" s="3">
         <v>5094000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3230000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4262000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>8728000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>9221000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>8758000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9322000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>6855000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>10340000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>9707000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>7681000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>7711000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>7387000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>5774000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>8463000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>6253000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>5796000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>549000</v>
+      </c>
+      <c r="F22" s="3">
         <v>589000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>435000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>567000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>603000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>594000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>564000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>557000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>529000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>536000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>478000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>390000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>352000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>368000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>345000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>331000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>299000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>5051000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1052000</v>
+      </c>
+      <c r="F23" s="3">
         <v>871000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8906000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-35000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3501000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4385000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4375000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5049000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1773000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>6327000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5721000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4245000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1502000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3855000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2499000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3472000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>924000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2231000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1639000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>149000</v>
+      </c>
+      <c r="F24" s="3">
         <v>690000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-484000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-37000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>852000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1540000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1571000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1909000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>593000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2240000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2087000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1596000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>772000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1092000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>472000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>693000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>437000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>251000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1634,120 +1730,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3412000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>903000</v>
+      </c>
+      <c r="F26" s="3">
         <v>181000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8422000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2649000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2845000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2804000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3140000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1180000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4087000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3634000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2649000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>730000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2763000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2027000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2779000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>487000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1980000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3254000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>810000</v>
+      </c>
+      <c r="F27" s="3">
         <v>118000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8440000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-38000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2527000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2727000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2624000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3036000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>817000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3957000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3721000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2636000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>719000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2724000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2037000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2849000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>345000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1802,8 +1916,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1858,8 +1978,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1914,8 +2040,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1970,120 +2102,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-955000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-152000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>139000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-584000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-493000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1366000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-908000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-648000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-719000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-974000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1211000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-513000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-693000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-495000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-399000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-605000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-449000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-637000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>3254000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>810000</v>
+      </c>
+      <c r="F33" s="3">
         <v>118000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8440000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-38000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2527000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2727000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2624000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3036000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>817000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3957000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3721000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2636000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>719000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2724000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2037000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2849000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>345000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2138,125 +2288,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>3254000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>810000</v>
+      </c>
+      <c r="F35" s="3">
         <v>118000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8440000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-38000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2527000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2727000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2624000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3036000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>817000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3957000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3721000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2636000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>719000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2724000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2037000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2849000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>345000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2277,8 +2445,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2299,512 +2469,568 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>30285000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>31268000</v>
+      </c>
+      <c r="F41" s="3">
         <v>30593000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>29727000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>21634000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>27352000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>27454000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>26723000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>25432000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>27907000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>25252000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>26475000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>30092000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>33185000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>28583000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>28720000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>27526000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>24597000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>24801000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>4605000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4630000</v>
+      </c>
+      <c r="F42" s="3">
         <v>6011000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>6570000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>7016000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>3992000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>3781000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>3536000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3373000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3654000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3553000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3609000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2289000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3393000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2579000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>3618000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>3971000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>4548000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1755000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>17532000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14068000</v>
+      </c>
+      <c r="F43" s="3">
         <v>12893000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>13481000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>18029000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>18488000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>18568000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>20349000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>19321000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>17270000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>20010000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>16974000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>17774000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>14893000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>13738000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>12923000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>12235000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>12213000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>11501000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>16192000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>14730000</v>
+      </c>
+      <c r="F44" s="3">
         <v>12373000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>12688000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>11556000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>17132000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>16226000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>16410000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>17075000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>14880000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>19689000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>18392000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>17006000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>16520000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>14769000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>14273000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>14985000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>15247000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>14635000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>14700000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14983000</v>
+      </c>
+      <c r="F45" s="3">
         <v>15727000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>17576000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>19850000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>18301000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>15343000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>15958000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>16551000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>16088000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>18820000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14408000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>14824000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>16957000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>14941000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>14455000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>14368000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>15912000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>15972000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>83314000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>79679000</v>
+      </c>
+      <c r="F46" s="3">
         <v>77597000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>80042000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>78085000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>85265000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>81372000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>82976000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>81752000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>79799000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>87324000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>79858000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>81985000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>84948000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>74610000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>73989000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>73085000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>72517000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>68664000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>36489000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>34764000</v>
+      </c>
+      <c r="F47" s="3">
         <v>32363000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>31528000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>29791000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>29812000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>29677000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>28904000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>28101000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>25545000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>26133000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>24806000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>25196000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>24509000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>23880000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>23746000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>23896000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>22617000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>23524000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>106859000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>108335000</v>
+      </c>
+      <c r="F48" s="3">
         <v>104355000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>104925000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>113254000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>116408000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>116900000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>118063000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>117881000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>113324000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>115136000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>114047000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>116181000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>109397000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>113491000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>112659000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>111100000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>111971000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>113433000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>33239000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>33528000</v>
+      </c>
+      <c r="F49" s="3">
         <v>33145000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>33114000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>32823000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>33178000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>31539000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>29229000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>28727000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>28922000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>27356000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>24562000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>24502000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>14587000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>14891000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>14119000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>14048000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>15362000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>14916000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2859,8 +3085,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2915,64 +3147,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>9257000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9826000</v>
+      </c>
+      <c r="F52" s="3">
         <v>9522000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>9796000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9231000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8631000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7953000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8328000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8402000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9172000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>8353000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>8732000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9152000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>9190000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>9636000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>9392000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>8880000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>8511000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>8968000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3027,64 +3271,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>269158000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>266132000</v>
+      </c>
+      <c r="F54" s="3">
         <v>256982000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>259405000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>263184000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>273294000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>267441000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>267500000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>264863000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>256762000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>264302000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>252005000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>257016000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>242631000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>236508000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>233905000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>231009000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>230978000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>229505000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3105,8 +3361,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3127,344 +3385,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>49025000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>46039000</v>
+      </c>
+      <c r="F57" s="3">
         <v>41686000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>43988000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>47225000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>54143000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>50965000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>49745000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>49777000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>48380000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>52529000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>42813000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>42788000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>44258000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>38832000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>36776000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>36784000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>39947000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>36694000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>20471000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>17099000</v>
+      </c>
+      <c r="F58" s="3">
         <v>14980000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>16154000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>18521000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>14819000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>14631000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>16221000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>13906000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>13306000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>15180000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>15659000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>14909000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>11096000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>11206000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>13070000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>13582000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>13920000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>13383000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="F59" s="3">
         <v>991000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>739000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>934000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1282000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1100000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>426000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>917000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>548000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>696000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>803000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>369000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1351000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>794000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>580000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>611000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>818000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>70008000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>64676000</v>
+      </c>
+      <c r="F60" s="3">
         <v>57657000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>60881000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>66680000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>70244000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>66696000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>66392000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>64600000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>62234000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>68405000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>59275000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>58066000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>56705000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>50832000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>50426000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>50977000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>54685000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>50982000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>52541000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>60203000</v>
+      </c>
+      <c r="F61" s="3">
         <v>61477000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>61540000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>48896000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>47773000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>47923000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>45394000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>44396000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>40129000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>41088000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>38362000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>40257000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>41340000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>40226000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>41548000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>42017000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>43067000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>44450000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>34924000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>35168000</v>
+      </c>
+      <c r="F62" s="3">
         <v>33437000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>33445000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>33174000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>35972000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>35509000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>36490000</v>
       </c>
       <c r="J62" s="3">
         <v>35509000</v>
       </c>
       <c r="K62" s="3">
+        <v>36490000</v>
+      </c>
+      <c r="L62" s="3">
+        <v>35509000</v>
+      </c>
+      <c r="M62" s="3">
         <v>36285000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>34186000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>34105000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>35007000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>30549000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>32850000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>31971000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>31361000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>31652000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>32957000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3519,8 +3815,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3575,8 +3877,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3631,64 +3939,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>159863000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>162430000</v>
+      </c>
+      <c r="F66" s="3">
         <v>154748000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>158200000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>151178000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>156516000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>152447000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>150638000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>146870000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>141122000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>146109000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>134030000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>135829000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>131075000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>126707000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>126717000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>127178000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>132298000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>131337000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3709,8 +4029,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3765,8 +4087,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3821,8 +4149,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3877,8 +4211,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3933,8 +4273,14 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
@@ -3989,8 +4335,14 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4045,8 +4397,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4101,8 +4459,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4157,64 +4521,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>109295000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>103702000</v>
+      </c>
+      <c r="F76" s="3">
         <v>102234000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>101205000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>112006000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>116778000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>114994000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>116862000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>117993000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>115640000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>118193000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>117975000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>121187000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>111556000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>109801000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>107188000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>103831000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>98680000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>98168000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4269,125 +4645,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>3254000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>810000</v>
+      </c>
+      <c r="F81" s="3">
         <v>118000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8440000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-38000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2527000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2727000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2624000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3036000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>817000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3957000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3721000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2636000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>719000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2724000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2037000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2849000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>345000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1954000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4408,64 +4802,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>3473000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3796000</v>
+      </c>
+      <c r="F83" s="3">
         <v>3634000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>11701000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3730000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>4624000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4242000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3819000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3716000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>4553000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3477000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3508000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>3046000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>5857000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>3164000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2930000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>4660000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>5030000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>3297000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4520,8 +4922,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4576,8 +4984,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4632,8 +5046,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4688,8 +5108,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4744,64 +5170,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>5598000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5674000</v>
+      </c>
+      <c r="F89" s="3">
         <v>4351000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3479000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1299000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>6599000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>8206000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>6251000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3629000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>10640000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>5736000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>6246000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2081000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>8615000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4363000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>4640000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>4701000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>7018000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>4740000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4822,64 +5260,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-2410000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3834000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2157000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2409000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2364000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4015000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2210000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2881000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2704000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4550000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3352000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3513000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5665000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4662000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3104000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3323000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2678000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-5742000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-4124000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4934,8 +5380,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4990,64 +5442,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-4184000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4476000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1901000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2928000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3774000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3925000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-6831000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3331000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3090000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5587000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2513000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4139000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3636000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3371000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3845000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-780000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-4928000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5009000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5068,64 +5532,72 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-2090000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-2053000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-825000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1928000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1882000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1876000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2935000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1830000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-705000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-2692000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-643000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1462000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-538000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-534000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5180,8 +5652,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5236,8 +5714,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5292,172 +5776,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-1859000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1202000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2083000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>7487000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2804000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-3607000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>507000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2780000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-4818000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1208000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-6054000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1845000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-986000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2083000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1105000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1366000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1175000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2402000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-538000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>679000</v>
+      </c>
+      <c r="F101" s="3">
         <v>499000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>55000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-439000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>831000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1151000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>200000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-234000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-460000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-164000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1296000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>810000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>609000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>954000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1504000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>374000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1119000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-983000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>675000</v>
+      </c>
+      <c r="F102" s="3">
         <v>866000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>8093000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5718000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-102000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>731000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1291000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2475000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2655000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1223000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3617000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-3093000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4602000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-137000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1194000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>2929000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-204000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2148000</v>
       </c>
     </row>
